--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118874.3400386913</v>
+        <v>20871406.48420118</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118874.3400386913</v>
+        <v>20871406.48420118</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10371.68165760051</v>
+        <v>1194970.861403137</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10371.68165760051</v>
+        <v>1194970.861403137</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265278301.651575</v>
+        <v>50564632.60892339</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9674.871256336546</v>
+        <v>1066405.864442381</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18775.42476041398</v>
+        <v>2083596.712370559</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27912.58302758473</v>
+        <v>3120404.039014041</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37288.78289169307</v>
+        <v>4134100.698150286</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46482.71859655954</v>
+        <v>5171317.309479368</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55694.21369615124</v>
+        <v>6206828.476149092</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>64910.79372894558</v>
+        <v>7242339.642818815</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74020.6148173064</v>
+        <v>8277850.809488537</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83426.67554352344</v>
+        <v>9306267.461705849</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92440.56967925293</v>
+        <v>10341129.6410727</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101453.546339897</v>
+        <v>11374664.70175728</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110189.6762926491</v>
+        <v>12408196.70247937</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119076.8753003084</v>
+        <v>13441751.35014769</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128382.3670252484</v>
+        <v>14404826.63412701</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138454.7351393407</v>
+        <v>15264202.57069406</v>
       </c>
     </row>
   </sheetData>
@@ -27043,7 +27043,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>361.0000000000843</v>
@@ -27055,7 +27055,7 @@
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,13 +27153,13 @@
         <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
